--- a/StructureDefinition-covid19-patient-outcome.xlsx
+++ b/StructureDefinition-covid19-patient-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-25T11:38:34+00:00</t>
+    <t>2022-08-31T09:33:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-patient-outcome.xlsx
+++ b/StructureDefinition-covid19-patient-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T09:33:23+00:00</t>
+    <t>2022-08-31T09:56:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-patient-outcome.xlsx
+++ b/StructureDefinition-covid19-patient-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T09:56:11+00:00</t>
+    <t>2022-08-31T10:36:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-patient-outcome.xlsx
+++ b/StructureDefinition-covid19-patient-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T10:36:06+00:00</t>
+    <t>2022-08-31T12:42:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-patient-outcome.xlsx
+++ b/StructureDefinition-covid19-patient-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T12:42:43+00:00</t>
+    <t>2022-08-31T14:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-patient-outcome.xlsx
+++ b/StructureDefinition-covid19-patient-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T14:41:46+00:00</t>
+    <t>2022-08-31T20:08:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-patient-outcome.xlsx
+++ b/StructureDefinition-covid19-patient-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T20:08:39+00:00</t>
+    <t>2022-08-31T20:28:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-patient-outcome.xlsx
+++ b/StructureDefinition-covid19-patient-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T20:28:40+00:00</t>
+    <t>2022-08-31T20:44:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-patient-outcome.xlsx
+++ b/StructureDefinition-covid19-patient-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T20:44:20+00:00</t>
+    <t>2022-08-31T20:56:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-patient-outcome.xlsx
+++ b/StructureDefinition-covid19-patient-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T20:56:30+00:00</t>
+    <t>2022-09-03T19:58:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-patient-outcome.xlsx
+++ b/StructureDefinition-covid19-patient-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-03T19:58:19+00:00</t>
+    <t>2022-09-03T20:14:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-patient-outcome.xlsx
+++ b/StructureDefinition-covid19-patient-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-03T20:14:05+00:00</t>
+    <t>2022-09-03T21:16:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-patient-outcome.xlsx
+++ b/StructureDefinition-covid19-patient-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-03T21:16:47+00:00</t>
+    <t>2022-09-03T21:25:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-patient-outcome.xlsx
+++ b/StructureDefinition-covid19-patient-outcome.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$54</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2056" uniqueCount="459">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-03T21:25:02+00:00</t>
+    <t>2022-09-04T09:55:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -458,31 +458,21 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>covid19DateRecovered</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://example.com/fhir/example/StructureDefinition/covid19-date-recovered}
+    <t>covid19LongCOVIDDescription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://example.com/fhir/example/StructureDefinition/covid19-long-covid-description}
 </t>
   </si>
   <si>
     <t>Covid19 Date Recovered</t>
   </si>
   <si>
-    <t>Date recovered or date symptoms resolved</t>
+    <t>Long COVID / post-COVID description</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
-  </si>
-  <si>
-    <t>covid19LongCOVIDDescription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://example.com/fhir/example/StructureDefinition/covid19-long-covid-description}
-</t>
-  </si>
-  <si>
-    <t>Long COVID / post-COVID description</t>
   </si>
   <si>
     <t>Observation.modifierExtension</t>
@@ -1784,7 +1774,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO55"/>
+  <dimension ref="A1:AO54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3008,43 +2998,45 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="B11" t="s" s="2">
         <v>147</v>
       </c>
+      <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H11" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="H11" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="I11" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="O11" t="s" s="2">
         <v>80</v>
       </c>
@@ -3092,7 +3084,7 @@
         <v>80</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>78</v>
@@ -3101,7 +3093,7 @@
         <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>141</v>
@@ -3116,7 +3108,7 @@
         <v>80</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>80</v>
@@ -3127,11 +3119,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>151</v>
+        <v>80</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -3144,25 +3136,23 @@
         <v>80</v>
       </c>
       <c r="H12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I12" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I12" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J12" t="s" s="2">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>80</v>
@@ -3211,7 +3201,7 @@
         <v>80</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>78</v>
@@ -3223,22 +3213,22 @@
         <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>80</v>
+        <v>162</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>80</v>
@@ -3246,11 +3236,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -3269,17 +3259,17 @@
         <v>91</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>80</v>
@@ -3328,7 +3318,7 @@
         <v>80</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>78</v>
@@ -3343,19 +3333,19 @@
         <v>102</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>80</v>
@@ -3363,11 +3353,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3386,18 +3376,18 @@
         <v>91</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="N14" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>80</v>
       </c>
@@ -3445,7 +3435,7 @@
         <v>80</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>78</v>
@@ -3460,16 +3450,16 @@
         <v>102</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>80</v>
@@ -3480,41 +3470,43 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>91</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>177</v>
+        <v>110</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="O15" t="s" s="2">
         <v>80</v>
       </c>
@@ -3538,13 +3530,13 @@
         <v>80</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>80</v>
+        <v>187</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>80</v>
@@ -3562,13 +3554,13 @@
         <v>80</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>80</v>
@@ -3577,19 +3569,19 @@
         <v>102</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>80</v>
+        <v>193</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>80</v>
@@ -3597,7 +3589,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3605,34 +3597,34 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>110</v>
+        <v>195</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>80</v>
@@ -3657,13 +3649,13 @@
         <v>80</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>189</v>
+        <v>114</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>80</v>
@@ -3681,13 +3673,13 @@
         <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>80</v>
@@ -3696,19 +3688,19 @@
         <v>102</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>192</v>
+        <v>80</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>193</v>
+        <v>80</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>194</v>
+        <v>80</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>80</v>
@@ -3716,18 +3708,18 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>80</v>
@@ -3736,22 +3728,22 @@
         <v>80</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>80</v>
@@ -3776,37 +3768,37 @@
         <v>80</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>114</v>
+        <v>210</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="Y17" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="Z17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>197</v>
-      </c>
       <c r="AF17" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>80</v>
@@ -3815,35 +3807,35 @@
         <v>102</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>80</v>
+        <v>213</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>80</v>
+        <v>214</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>80</v>
+        <v>215</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>80</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>208</v>
+        <v>80</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>90</v>
@@ -3858,19 +3850,19 @@
         <v>91</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>80</v>
@@ -3895,13 +3887,13 @@
         <v>80</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>213</v>
+        <v>80</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>214</v>
+        <v>80</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>215</v>
+        <v>80</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>80</v>
@@ -3919,10 +3911,10 @@
         <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>90</v>
@@ -3934,27 +3926,27 @@
         <v>102</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>217</v>
+        <v>80</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>221</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3965,7 +3957,7 @@
         <v>78</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>80</v>
@@ -3977,20 +3969,18 @@
         <v>91</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>80</v>
       </c>
@@ -4038,13 +4028,13 @@
         <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>80</v>
@@ -4053,19 +4043,19 @@
         <v>102</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>80</v>
@@ -4073,18 +4063,18 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>80</v>
+        <v>236</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>80</v>
@@ -4096,18 +4086,20 @@
         <v>91</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>80</v>
       </c>
@@ -4155,13 +4147,13 @@
         <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>80</v>
@@ -4170,19 +4162,19 @@
         <v>102</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>80</v>
+        <v>242</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>80</v>
@@ -4190,11 +4182,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4213,19 +4205,19 @@
         <v>91</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>80</v>
@@ -4274,7 +4266,7 @@
         <v>80</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -4289,19 +4281,19 @@
         <v>102</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>80</v>
@@ -4309,11 +4301,11 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4332,20 +4324,18 @@
         <v>91</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>80</v>
       </c>
@@ -4393,7 +4383,7 @@
         <v>80</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
@@ -4408,19 +4398,19 @@
         <v>102</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>256</v>
+        <v>80</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>80</v>
@@ -4428,7 +4418,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4439,7 +4429,7 @@
         <v>78</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>80</v>
@@ -4451,18 +4441,18 @@
         <v>91</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>80</v>
       </c>
@@ -4510,13 +4500,13 @@
         <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>80</v>
@@ -4525,19 +4515,19 @@
         <v>102</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>80</v>
+        <v>270</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>80</v>
@@ -4545,7 +4535,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4556,7 +4546,7 @@
         <v>78</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>80</v>
@@ -4568,17 +4558,19 @@
         <v>91</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M24" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="N24" t="s" s="2">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>80</v>
@@ -4615,56 +4607,56 @@
         <v>80</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="AB24" s="2"/>
       <c r="AC24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>80</v>
+        <v>282</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>273</v>
+        <v>80</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>80</v>
+        <v>283</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>276</v>
+        <v>80</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>80</v>
+        <v>286</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="B25" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="C25" t="s" s="2">
         <v>80</v>
       </c>
@@ -4685,19 +4677,19 @@
         <v>91</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>80</v>
@@ -4722,29 +4714,29 @@
         <v>80</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="X25" s="2"/>
       <c r="Y25" t="s" s="2">
-        <v>80</v>
+        <v>288</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AB25" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AC25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>284</v>
+        <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4753,7 +4745,7 @@
         <v>90</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>102</v>
@@ -4762,27 +4754,27 @@
         <v>80</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO25" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="AL25" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO25" t="s" s="2">
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="B26" t="s" s="2">
         <v>289</v>
-      </c>
-    </row>
-    <row r="26" hidden="true">
-      <c r="A26" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>80</v>
@@ -4795,7 +4787,7 @@
         <v>90</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>80</v>
@@ -4804,19 +4796,19 @@
         <v>91</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>198</v>
+        <v>290</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>80</v>
@@ -4841,11 +4833,13 @@
         <v>80</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="X26" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Y26" t="s" s="2">
-        <v>291</v>
+        <v>80</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>80</v>
@@ -4863,7 +4857,7 @@
         <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -4872,7 +4866,7 @@
         <v>90</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>102</v>
@@ -4881,28 +4875,26 @@
         <v>80</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AN26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO26" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="AL26" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>289</v>
-      </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>80</v>
       </c>
@@ -4914,28 +4906,28 @@
         <v>90</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="K27" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>280</v>
-      </c>
       <c r="M27" t="s" s="2">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>80</v>
@@ -4960,13 +4952,13 @@
         <v>80</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>80</v>
+        <v>296</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>80</v>
+        <v>297</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>80</v>
+        <v>298</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>80</v>
@@ -4984,7 +4976,7 @@
         <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -4993,7 +4985,7 @@
         <v>90</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>102</v>
@@ -5002,35 +4994,35 @@
         <v>80</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>286</v>
+        <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>287</v>
+        <v>133</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>289</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>80</v>
+        <v>302</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>80</v>
@@ -5042,19 +5034,19 @@
         <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>80</v>
@@ -5079,40 +5071,40 @@
         <v>80</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="Y28" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE28" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="Z28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>294</v>
-      </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>302</v>
+        <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>102</v>
@@ -5121,28 +5113,28 @@
         <v>80</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>80</v>
+        <v>309</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>133</v>
+        <v>310</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>80</v>
+        <v>312</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>305</v>
+        <v>80</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5152,7 +5144,7 @@
         <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>80</v>
@@ -5161,19 +5153,19 @@
         <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>80</v>
@@ -5198,13 +5190,13 @@
         <v>80</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>299</v>
+        <v>80</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>310</v>
+        <v>80</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>311</v>
+        <v>80</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>80</v>
@@ -5222,7 +5214,7 @@
         <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5240,24 +5232,24 @@
         <v>80</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>312</v>
+        <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>315</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5268,10 +5260,10 @@
         <v>78</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>80</v>
@@ -5280,20 +5272,18 @@
         <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>317</v>
+        <v>195</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>80</v>
       </c>
@@ -5317,13 +5307,13 @@
         <v>80</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>80</v>
+        <v>325</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>80</v>
+        <v>326</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>80</v>
@@ -5341,13 +5331,13 @@
         <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>80</v>
@@ -5359,24 +5349,24 @@
         <v>80</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>80</v>
+        <v>327</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>80</v>
+        <v>330</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5399,18 +5389,20 @@
         <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>80</v>
       </c>
@@ -5434,13 +5426,13 @@
         <v>80</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>80</v>
@@ -5458,7 +5450,7 @@
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5476,24 +5468,24 @@
         <v>80</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>333</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5516,20 +5508,18 @@
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>198</v>
+        <v>341</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>80</v>
       </c>
@@ -5553,31 +5543,31 @@
         <v>80</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>213</v>
+        <v>80</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>339</v>
+        <v>80</v>
       </c>
       <c r="Y32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE32" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5595,24 +5585,24 @@
         <v>80</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>80</v>
+        <v>345</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>80</v>
+        <v>348</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5635,16 +5625,16 @@
         <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5694,7 +5684,7 @@
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5712,24 +5702,24 @@
         <v>80</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5740,7 +5730,7 @@
         <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>80</v>
@@ -5752,18 +5742,20 @@
         <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>80</v>
       </c>
@@ -5811,42 +5803,42 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>102</v>
+        <v>364</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>357</v>
+        <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>360</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5857,7 +5849,7 @@
         <v>78</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>80</v>
@@ -5869,20 +5861,16 @@
         <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>362</v>
+        <v>92</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>366</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>80</v>
       </c>
@@ -5930,19 +5918,19 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>367</v>
+        <v>80</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>80</v>
@@ -5951,10 +5939,10 @@
         <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>368</v>
+        <v>80</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -5965,18 +5953,18 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>80</v>
@@ -5988,15 +5976,17 @@
         <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>80</v>
@@ -6045,19 +6035,19 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>80</v>
@@ -6069,7 +6059,7 @@
         <v>80</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>80</v>
@@ -6080,11 +6070,11 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6097,24 +6087,26 @@
         <v>80</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>135</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>80</v>
       </c>
@@ -6162,7 +6154,7 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6186,7 +6178,7 @@
         <v>80</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>374</v>
+        <v>133</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>80</v>
@@ -6197,43 +6189,39 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>380</v>
+        <v>80</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>135</v>
+        <v>382</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>80</v>
       </c>
@@ -6281,19 +6269,19 @@
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>80</v>
+        <v>385</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>80</v>
@@ -6302,10 +6290,10 @@
         <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>80</v>
+        <v>386</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>133</v>
+        <v>387</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>80</v>
@@ -6316,7 +6304,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6339,13 +6327,13 @@
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6396,7 +6384,7 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6405,7 +6393,7 @@
         <v>90</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>102</v>
@@ -6417,10 +6405,10 @@
         <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>80</v>
@@ -6431,7 +6419,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6454,16 +6442,20 @@
         <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>385</v>
+        <v>195</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>80</v>
       </c>
@@ -6487,13 +6479,13 @@
         <v>80</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>80</v>
+        <v>397</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>80</v>
+        <v>398</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>80</v>
@@ -6511,7 +6503,7 @@
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6520,7 +6512,7 @@
         <v>90</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>388</v>
+        <v>80</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>102</v>
@@ -6529,13 +6521,13 @@
         <v>80</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>80</v>
+        <v>399</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>394</v>
+        <v>311</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>80</v>
@@ -6546,7 +6538,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6557,7 +6549,7 @@
         <v>78</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>80</v>
@@ -6569,19 +6561,19 @@
         <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>80</v>
@@ -6606,37 +6598,37 @@
         <v>80</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>114</v>
+        <v>210</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="Y41" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE41" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="Z41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>395</v>
-      </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>80</v>
@@ -6648,13 +6640,13 @@
         <v>80</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>80</v>
@@ -6665,7 +6657,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6676,7 +6668,7 @@
         <v>78</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>80</v>
@@ -6688,19 +6680,17 @@
         <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>198</v>
+        <v>409</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>407</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>80</v>
@@ -6725,13 +6715,13 @@
         <v>80</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>213</v>
+        <v>80</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>409</v>
+        <v>80</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>410</v>
+        <v>80</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>80</v>
@@ -6749,13 +6739,13 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>80</v>
@@ -6767,13 +6757,13 @@
         <v>80</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>402</v>
+        <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>403</v>
+        <v>80</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>314</v>
+        <v>413</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>80</v>
@@ -6784,7 +6774,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6807,18 +6797,16 @@
         <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>412</v>
+        <v>92</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="M43" s="2"/>
-      <c r="N43" t="s" s="2">
-        <v>415</v>
-      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>80</v>
       </c>
@@ -6866,7 +6854,7 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6887,10 +6875,10 @@
         <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>80</v>
+        <v>386</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
@@ -6901,7 +6889,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6912,7 +6900,7 @@
         <v>78</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>80</v>
@@ -6921,18 +6909,20 @@
         <v>80</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>92</v>
+        <v>419</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>422</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>80</v>
@@ -6981,13 +6971,13 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>80</v>
@@ -7002,10 +6992,10 @@
         <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>389</v>
+        <v>423</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
@@ -7016,7 +7006,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7039,16 +7029,16 @@
         <v>91</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7098,7 +7088,7 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7119,10 +7109,10 @@
         <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>80</v>
@@ -7133,7 +7123,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7156,18 +7146,20 @@
         <v>91</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>429</v>
+        <v>359</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>435</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>80</v>
       </c>
@@ -7215,7 +7207,7 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7236,10 +7228,10 @@
         <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>80</v>
@@ -7250,7 +7242,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7261,7 +7253,7 @@
         <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>80</v>
@@ -7270,23 +7262,19 @@
         <v>80</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>362</v>
+        <v>92</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>435</v>
+        <v>368</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>438</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7334,19 +7322,19 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>434</v>
+        <v>370</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>80</v>
@@ -7355,10 +7343,10 @@
         <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>439</v>
+        <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>440</v>
+        <v>371</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>80</v>
@@ -7369,18 +7357,18 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>80</v>
@@ -7392,15 +7380,17 @@
         <v>80</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>80</v>
@@ -7449,19 +7439,19 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>80</v>
@@ -7473,7 +7463,7 @@
         <v>80</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>80</v>
@@ -7484,11 +7474,11 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7501,24 +7491,26 @@
         <v>80</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>135</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>80</v>
       </c>
@@ -7566,7 +7558,7 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7590,7 +7582,7 @@
         <v>80</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>374</v>
+        <v>133</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>80</v>
@@ -7601,42 +7593,42 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>380</v>
+        <v>80</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>91</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>381</v>
+        <v>442</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>382</v>
+        <v>443</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>154</v>
+        <v>444</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>155</v>
+        <v>209</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>80</v>
@@ -7661,13 +7653,13 @@
         <v>80</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>80</v>
+        <v>211</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>80</v>
@@ -7685,34 +7677,34 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>383</v>
+        <v>441</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>80</v>
+        <v>445</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>80</v>
+        <v>215</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>133</v>
+        <v>216</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>80</v>
+        <v>217</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>80</v>
@@ -7720,7 +7712,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7728,7 +7720,7 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>90</v>
@@ -7743,19 +7735,19 @@
         <v>91</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>198</v>
+        <v>447</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>446</v>
+        <v>277</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>212</v>
+        <v>279</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>80</v>
@@ -7780,13 +7772,13 @@
         <v>80</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>213</v>
+        <v>80</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>214</v>
+        <v>80</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>215</v>
+        <v>80</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>80</v>
@@ -7804,10 +7796,10 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>90</v>
@@ -7822,24 +7814,24 @@
         <v>80</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>218</v>
+        <v>284</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>219</v>
+        <v>285</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>80</v>
+        <v>286</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7859,22 +7851,22 @@
         <v>80</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>450</v>
+        <v>195</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>280</v>
+        <v>453</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>80</v>
@@ -7899,13 +7891,13 @@
         <v>80</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>80</v>
+        <v>296</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>80</v>
+        <v>297</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>80</v>
+        <v>298</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>80</v>
@@ -7923,7 +7915,7 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7932,7 +7924,7 @@
         <v>90</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>80</v>
+        <v>299</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>102</v>
@@ -7941,35 +7933,35 @@
         <v>80</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>453</v>
+        <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>287</v>
+        <v>133</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>289</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>80</v>
+        <v>302</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>80</v>
@@ -7981,19 +7973,19 @@
         <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>455</v>
+        <v>303</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>456</v>
+        <v>304</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>457</v>
+        <v>305</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>80</v>
@@ -8018,13 +8010,13 @@
         <v>80</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>80</v>
@@ -8042,16 +8034,16 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>302</v>
+        <v>80</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>102</v>
@@ -8060,28 +8052,28 @@
         <v>80</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>80</v>
+        <v>309</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>133</v>
+        <v>310</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>80</v>
+        <v>312</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>305</v>
+        <v>80</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8100,19 +8092,19 @@
         <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>198</v>
+        <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>306</v>
+        <v>457</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>307</v>
+        <v>458</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>308</v>
+        <v>362</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>309</v>
+        <v>363</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>80</v>
@@ -8137,13 +8129,13 @@
         <v>80</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>299</v>
+        <v>80</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>310</v>
+        <v>80</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>311</v>
+        <v>80</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>80</v>
@@ -8161,7 +8153,7 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8179,142 +8171,23 @@
         <v>80</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>312</v>
+        <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>313</v>
+        <v>365</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>314</v>
+        <v>366</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="55" hidden="true">
-      <c r="A55" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="E55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P55" s="2"/>
-      <c r="Q55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO55" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO55">
+  <autoFilter ref="A1:AO54">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8324,7 +8197,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI54">
+  <conditionalFormatting sqref="A2:AI53">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-covid19-patient-outcome.xlsx
+++ b/StructureDefinition-covid19-patient-outcome.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$53</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2056" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2018" uniqueCount="456">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T09:55:59+00:00</t>
+    <t>2022-09-04T13:23:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -876,8 +876,8 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
-    <t>CodeableConcept
-dateTime</t>
+    <t xml:space="preserve">dateTime
+</t>
   </si>
   <si>
     <t>Actual result</t>
@@ -915,17 +915,7 @@
     <t>363714003 |Interprets|</t>
   </si>
   <si>
-    <t>valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>http://example.com/fhir/example/ValueSet/vs-patient-outcome</t>
-  </si>
-  <si>
     <t>valueDateTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
   </si>
   <si>
     <t>Observation.dataAbsentReason</t>
@@ -1774,7 +1764,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO54"/>
+  <dimension ref="A1:AO53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1807,7 +1797,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="63.70703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.66796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.40625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
@@ -4650,7 +4640,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>274</v>
       </c>
@@ -4668,7 +4658,7 @@
         <v>90</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>80</v>
@@ -4677,7 +4667,7 @@
         <v>91</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>195</v>
+        <v>275</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>276</v>
@@ -4714,11 +4704,13 @@
         <v>80</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="X25" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Y25" t="s" s="2">
-        <v>288</v>
+        <v>80</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>80</v>
@@ -4769,13 +4761,11 @@
         <v>286</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
         <v>80</v>
       </c>
@@ -4787,28 +4777,28 @@
         <v>90</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="K26" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>277</v>
-      </c>
       <c r="M26" t="s" s="2">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>80</v>
@@ -4833,13 +4823,13 @@
         <v>80</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>80</v>
+        <v>293</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>80</v>
+        <v>294</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>80</v>
+        <v>295</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>80</v>
@@ -4857,7 +4847,7 @@
         <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -4866,7 +4856,7 @@
         <v>90</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>102</v>
@@ -4875,35 +4865,35 @@
         <v>80</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>283</v>
+        <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>284</v>
+        <v>133</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>286</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>80</v>
+        <v>299</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>80</v>
@@ -4918,16 +4908,16 @@
         <v>195</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>80</v>
@@ -4952,40 +4942,40 @@
         <v>80</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="Y27" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="Z27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>291</v>
-      </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>299</v>
+        <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>102</v>
@@ -4994,28 +4984,28 @@
         <v>80</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>80</v>
+        <v>306</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>133</v>
+        <v>307</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>80</v>
+        <v>309</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>302</v>
+        <v>80</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -5025,7 +5015,7 @@
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>80</v>
@@ -5034,19 +5024,19 @@
         <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>195</v>
+        <v>311</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>80</v>
@@ -5071,13 +5061,13 @@
         <v>80</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>296</v>
+        <v>80</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>307</v>
+        <v>80</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>308</v>
+        <v>80</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>80</v>
@@ -5095,7 +5085,7 @@
         <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5113,24 +5103,24 @@
         <v>80</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>309</v>
+        <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>312</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5141,10 +5131,10 @@
         <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>80</v>
@@ -5153,20 +5143,18 @@
         <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>314</v>
+        <v>195</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>80</v>
       </c>
@@ -5190,13 +5178,13 @@
         <v>80</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>80</v>
+        <v>322</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>80</v>
+        <v>323</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>80</v>
@@ -5214,13 +5202,13 @@
         <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>80</v>
@@ -5232,24 +5220,24 @@
         <v>80</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>80</v>
+        <v>324</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>80</v>
+        <v>327</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5275,15 +5263,17 @@
         <v>195</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>80</v>
       </c>
@@ -5310,10 +5300,10 @@
         <v>210</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>80</v>
@@ -5331,7 +5321,7 @@
         <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5349,24 +5339,24 @@
         <v>80</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>327</v>
+        <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>330</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5389,20 +5379,18 @@
         <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>195</v>
+        <v>338</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>80</v>
       </c>
@@ -5426,31 +5414,31 @@
         <v>80</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>336</v>
+        <v>80</v>
       </c>
       <c r="Y31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE31" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5468,24 +5456,24 @@
         <v>80</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>80</v>
+        <v>342</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>80</v>
+        <v>345</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5508,16 +5496,16 @@
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5567,7 +5555,7 @@
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5585,24 +5573,24 @@
         <v>80</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>348</v>
+        <v>354</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5613,7 +5601,7 @@
         <v>78</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>80</v>
@@ -5625,18 +5613,20 @@
         <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>80</v>
       </c>
@@ -5684,42 +5674,42 @@
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>102</v>
+        <v>361</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>354</v>
+        <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>357</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5730,7 +5720,7 @@
         <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>80</v>
@@ -5742,20 +5732,16 @@
         <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>359</v>
+        <v>92</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>80</v>
       </c>
@@ -5803,19 +5789,19 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>364</v>
+        <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>80</v>
@@ -5824,10 +5810,10 @@
         <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>365</v>
+        <v>80</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
@@ -5838,18 +5824,18 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>80</v>
@@ -5861,15 +5847,17 @@
         <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>80</v>
@@ -5918,19 +5906,19 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>80</v>
@@ -5942,7 +5930,7 @@
         <v>80</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -5953,11 +5941,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>148</v>
+        <v>374</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5970,24 +5958,26 @@
         <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>135</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="N36" s="2"/>
+      <c r="N36" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>80</v>
       </c>
@@ -6035,7 +6025,7 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6059,7 +6049,7 @@
         <v>80</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>371</v>
+        <v>133</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>80</v>
@@ -6070,43 +6060,39 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>377</v>
+        <v>80</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>135</v>
+        <v>379</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>80</v>
       </c>
@@ -6154,19 +6140,19 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>80</v>
+        <v>382</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>80</v>
@@ -6175,10 +6161,10 @@
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>80</v>
+        <v>383</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>133</v>
+        <v>384</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>80</v>
@@ -6189,7 +6175,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6212,13 +6198,13 @@
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6269,7 +6255,7 @@
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6278,7 +6264,7 @@
         <v>90</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>102</v>
@@ -6290,10 +6276,10 @@
         <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>80</v>
@@ -6304,7 +6290,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6327,16 +6313,20 @@
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>382</v>
+        <v>195</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>80</v>
       </c>
@@ -6360,13 +6350,13 @@
         <v>80</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>80</v>
+        <v>394</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>80</v>
+        <v>395</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>80</v>
@@ -6384,7 +6374,7 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6393,7 +6383,7 @@
         <v>90</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>385</v>
+        <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>102</v>
@@ -6402,13 +6392,13 @@
         <v>80</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>80</v>
+        <v>396</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>391</v>
+        <v>308</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>80</v>
@@ -6419,7 +6409,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6430,7 +6420,7 @@
         <v>78</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>80</v>
@@ -6445,16 +6435,16 @@
         <v>195</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>80</v>
@@ -6479,37 +6469,37 @@
         <v>80</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>114</v>
+        <v>210</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="Y40" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE40" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="Z40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>392</v>
-      </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>80</v>
@@ -6521,13 +6511,13 @@
         <v>80</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>80</v>
@@ -6538,7 +6528,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6549,7 +6539,7 @@
         <v>78</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>80</v>
@@ -6561,19 +6551,17 @@
         <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>195</v>
+        <v>406</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>404</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>80</v>
@@ -6598,13 +6586,13 @@
         <v>80</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>406</v>
+        <v>80</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>407</v>
+        <v>80</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>80</v>
@@ -6622,13 +6610,13 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>80</v>
@@ -6640,13 +6628,13 @@
         <v>80</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>399</v>
+        <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>311</v>
+        <v>410</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>80</v>
@@ -6657,7 +6645,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6680,18 +6668,16 @@
         <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>409</v>
+        <v>92</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="M42" s="2"/>
-      <c r="N42" t="s" s="2">
-        <v>412</v>
-      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>80</v>
       </c>
@@ -6739,7 +6725,7 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6760,10 +6746,10 @@
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>80</v>
+        <v>383</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>80</v>
@@ -6774,7 +6760,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6785,7 +6771,7 @@
         <v>78</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>80</v>
@@ -6794,18 +6780,20 @@
         <v>80</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>92</v>
+        <v>416</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>80</v>
@@ -6854,13 +6842,13 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>80</v>
@@ -6875,10 +6863,10 @@
         <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>386</v>
+        <v>420</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
@@ -6889,7 +6877,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6912,16 +6900,16 @@
         <v>91</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6971,7 +6959,7 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -6992,10 +6980,10 @@
         <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
@@ -7006,7 +6994,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7029,18 +7017,20 @@
         <v>91</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>426</v>
+        <v>356</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7088,7 +7078,7 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7109,10 +7099,10 @@
         <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>80</v>
@@ -7123,7 +7113,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7134,7 +7124,7 @@
         <v>78</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>80</v>
@@ -7143,23 +7133,19 @@
         <v>80</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>359</v>
+        <v>92</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>432</v>
+        <v>365</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>435</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>80</v>
       </c>
@@ -7207,19 +7193,19 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>431</v>
+        <v>367</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>80</v>
@@ -7228,10 +7214,10 @@
         <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>436</v>
+        <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>437</v>
+        <v>368</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>80</v>
@@ -7242,18 +7228,18 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>80</v>
@@ -7265,15 +7251,17 @@
         <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>80</v>
@@ -7322,19 +7310,19 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>80</v>
@@ -7346,7 +7334,7 @@
         <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>80</v>
@@ -7357,11 +7345,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>148</v>
+        <v>374</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7374,24 +7362,26 @@
         <v>80</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>135</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="N48" s="2"/>
+      <c r="N48" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>80</v>
       </c>
@@ -7439,7 +7429,7 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7463,7 +7453,7 @@
         <v>80</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>371</v>
+        <v>133</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>80</v>
@@ -7474,42 +7464,42 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>377</v>
+        <v>80</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>91</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>378</v>
+        <v>439</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>379</v>
+        <v>440</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>151</v>
+        <v>441</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>152</v>
+        <v>209</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>80</v>
@@ -7534,13 +7524,13 @@
         <v>80</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>80</v>
+        <v>211</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>80</v>
@@ -7558,34 +7548,34 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>380</v>
+        <v>438</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>80</v>
+        <v>442</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>80</v>
+        <v>215</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>133</v>
+        <v>216</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>80</v>
+        <v>217</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>80</v>
@@ -7593,7 +7583,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7601,7 +7591,7 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>90</v>
@@ -7616,19 +7606,19 @@
         <v>91</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>195</v>
+        <v>444</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>443</v>
+        <v>277</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>209</v>
+        <v>279</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>80</v>
@@ -7653,13 +7643,13 @@
         <v>80</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>211</v>
+        <v>80</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>212</v>
+        <v>80</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>80</v>
@@ -7677,10 +7667,10 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>90</v>
@@ -7695,24 +7685,24 @@
         <v>80</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>215</v>
+        <v>284</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>216</v>
+        <v>285</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>217</v>
+        <v>80</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>80</v>
+        <v>286</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7732,22 +7722,22 @@
         <v>80</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>447</v>
+        <v>195</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>277</v>
+        <v>450</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>80</v>
@@ -7772,13 +7762,13 @@
         <v>80</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>80</v>
+        <v>293</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>80</v>
+        <v>294</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>80</v>
+        <v>295</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>80</v>
@@ -7796,7 +7786,7 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7805,7 +7795,7 @@
         <v>90</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>80</v>
+        <v>296</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>102</v>
@@ -7814,35 +7804,35 @@
         <v>80</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>450</v>
+        <v>80</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>284</v>
+        <v>133</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>286</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>80</v>
+        <v>299</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>80</v>
@@ -7857,16 +7847,16 @@
         <v>195</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>452</v>
+        <v>300</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>453</v>
+        <v>301</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>454</v>
+        <v>302</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>80</v>
@@ -7891,13 +7881,13 @@
         <v>80</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>80</v>
@@ -7915,16 +7905,16 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>299</v>
+        <v>80</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>102</v>
@@ -7933,28 +7923,28 @@
         <v>80</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>80</v>
+        <v>306</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>133</v>
+        <v>307</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>80</v>
+        <v>309</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>302</v>
+        <v>80</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7973,19 +7963,19 @@
         <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>195</v>
+        <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>303</v>
+        <v>454</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>304</v>
+        <v>455</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>305</v>
+        <v>359</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>306</v>
+        <v>360</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>80</v>
@@ -8010,13 +8000,13 @@
         <v>80</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>296</v>
+        <v>80</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>307</v>
+        <v>80</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>308</v>
+        <v>80</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>80</v>
@@ -8034,7 +8024,7 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8052,142 +8042,23 @@
         <v>80</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>309</v>
+        <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>310</v>
+        <v>362</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>311</v>
+        <v>363</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="54" hidden="true">
-      <c r="A54" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P54" s="2"/>
-      <c r="Q54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO54" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO54">
+  <autoFilter ref="A1:AO53">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8197,7 +8068,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI53">
+  <conditionalFormatting sqref="A2:AI52">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-covid19-patient-outcome.xlsx
+++ b/StructureDefinition-covid19-patient-outcome.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$52</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2018" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1983" uniqueCount="448">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T13:23:45+00:00</t>
+    <t>2022-09-04T13:33:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -434,21 +434,21 @@
     <t>Observation.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -458,28 +458,7 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>covid19LongCOVIDDescription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://example.com/fhir/example/StructureDefinition/covid19-long-covid-description}
-</t>
-  </si>
-  <si>
-    <t>Covid19 Date Recovered</t>
-  </si>
-  <si>
-    <t>Long COVID / post-COVID description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>Observation.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
   </si>
   <si>
     <t>Extensions that cannot be ignored</t>
@@ -489,9 +468,6 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -1171,9 +1147,6 @@
   </si>
   <si>
     <t>Observation.referenceRange.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -1764,7 +1737,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO53"/>
+  <dimension ref="A1:AO52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1774,7 +1747,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="29.10546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.9765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -2764,7 +2737,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2783,15 +2756,17 @@
         <v>80</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>80</v>
@@ -2828,14 +2803,16 @@
         <v>80</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>140</v>
@@ -2862,7 +2839,7 @@
         <v>80</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>80</v>
@@ -2871,43 +2848,45 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="B10" t="s" s="2">
         <v>142</v>
       </c>
+      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H10" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="H10" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="I10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>80</v>
       </c>
@@ -2955,7 +2934,7 @@
         <v>80</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>78</v>
@@ -2964,7 +2943,7 @@
         <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>141</v>
@@ -2979,7 +2958,7 @@
         <v>80</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>80</v>
@@ -2994,7 +2973,7 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -3007,13 +2986,13 @@
         <v>80</v>
       </c>
       <c r="H11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I11" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I11" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J11" t="s" s="2">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>149</v>
@@ -3021,11 +3000,9 @@
       <c r="L11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="M11" s="2"/>
+      <c r="N11" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>80</v>
@@ -3074,7 +3051,7 @@
         <v>80</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>78</v>
@@ -3086,22 +3063,22 @@
         <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>80</v>
+        <v>153</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>80</v>
@@ -3109,11 +3086,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -3132,17 +3109,17 @@
         <v>91</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>80</v>
@@ -3191,7 +3168,7 @@
         <v>80</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>78</v>
@@ -3206,19 +3183,19 @@
         <v>102</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>80</v>
@@ -3226,11 +3203,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -3249,18 +3226,18 @@
         <v>91</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="M13" s="2"/>
-      <c r="N13" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>80</v>
       </c>
@@ -3308,7 +3285,7 @@
         <v>80</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>78</v>
@@ -3323,16 +3300,16 @@
         <v>102</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>80</v>
@@ -3343,30 +3320,30 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>91</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>174</v>
+        <v>110</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>175</v>
@@ -3377,7 +3354,9 @@
       <c r="M14" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="N14" s="2"/>
+      <c r="N14" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O14" t="s" s="2">
         <v>80</v>
       </c>
@@ -3401,13 +3380,13 @@
         <v>80</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>80</v>
@@ -3425,13 +3404,13 @@
         <v>80</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>80</v>
@@ -3440,19 +3419,19 @@
         <v>102</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>80</v>
+        <v>183</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>80</v>
@@ -3460,7 +3439,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3468,34 +3447,34 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>110</v>
+        <v>188</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>80</v>
@@ -3520,37 +3499,37 @@
         <v>80</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>186</v>
+        <v>114</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE15" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="Y15" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="AF15" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>80</v>
@@ -3559,19 +3538,19 @@
         <v>102</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>189</v>
+        <v>80</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>191</v>
+        <v>80</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>80</v>
@@ -3579,18 +3558,18 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>80</v>
+        <v>198</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>80</v>
@@ -3599,22 +3578,22 @@
         <v>80</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>80</v>
@@ -3639,13 +3618,13 @@
         <v>80</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>114</v>
+        <v>203</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>80</v>
@@ -3663,13 +3642,13 @@
         <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>80</v>
@@ -3678,35 +3657,35 @@
         <v>102</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>80</v>
+        <v>206</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>80</v>
+        <v>207</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>80</v>
+        <v>208</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>80</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>90</v>
@@ -3721,19 +3700,19 @@
         <v>91</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>80</v>
@@ -3758,34 +3737,34 @@
         <v>80</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>211</v>
+        <v>80</v>
       </c>
       <c r="Y17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="Z17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>204</v>
-      </c>
       <c r="AF17" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>90</v>
@@ -3797,27 +3776,27 @@
         <v>102</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>214</v>
+        <v>80</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>218</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3828,7 +3807,7 @@
         <v>78</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>80</v>
@@ -3840,20 +3819,18 @@
         <v>91</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>80</v>
       </c>
@@ -3901,13 +3878,13 @@
         <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>80</v>
@@ -3916,19 +3893,19 @@
         <v>102</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>225</v>
+        <v>80</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>227</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>80</v>
@@ -3936,18 +3913,18 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>80</v>
+        <v>229</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>80</v>
@@ -3970,7 +3947,9 @@
       <c r="M19" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="N19" s="2"/>
+      <c r="N19" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>80</v>
       </c>
@@ -4018,13 +3997,13 @@
         <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>80</v>
@@ -4033,19 +4012,19 @@
         <v>102</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>80</v>
+        <v>235</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>80</v>
@@ -4053,11 +4032,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4076,19 +4055,19 @@
         <v>91</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>80</v>
@@ -4137,7 +4116,7 @@
         <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
@@ -4152,19 +4131,19 @@
         <v>102</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>80</v>
@@ -4172,11 +4151,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>247</v>
+        <v>80</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4195,20 +4174,18 @@
         <v>91</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>80</v>
       </c>
@@ -4256,7 +4233,7 @@
         <v>80</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -4271,19 +4248,19 @@
         <v>102</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>253</v>
+        <v>80</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>80</v>
@@ -4291,7 +4268,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4302,7 +4279,7 @@
         <v>78</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>80</v>
@@ -4314,18 +4291,18 @@
         <v>91</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="M22" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="N22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>80</v>
       </c>
@@ -4373,13 +4350,13 @@
         <v>80</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>80</v>
@@ -4388,19 +4365,19 @@
         <v>102</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>80</v>
+        <v>263</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>80</v>
@@ -4408,7 +4385,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4419,7 +4396,7 @@
         <v>78</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>80</v>
@@ -4431,17 +4408,19 @@
         <v>91</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="N23" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>80</v>
@@ -4478,56 +4457,56 @@
         <v>80</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="AB23" s="2"/>
       <c r="AC23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>80</v>
+        <v>274</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>80</v>
+        <v>275</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>270</v>
+        <v>80</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>80</v>
+        <v>276</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>273</v>
+        <v>80</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>80</v>
+        <v>279</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="B24" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="C24" t="s" s="2">
         <v>80</v>
       </c>
@@ -4539,7 +4518,7 @@
         <v>90</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>80</v>
@@ -4548,19 +4527,19 @@
         <v>91</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>80</v>
@@ -4597,17 +4576,19 @@
         <v>80</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="AB24" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AC24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>281</v>
+        <v>80</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4616,7 +4597,7 @@
         <v>90</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>102</v>
@@ -4625,28 +4606,26 @@
         <v>80</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
         <v>80</v>
       </c>
@@ -4658,28 +4637,28 @@
         <v>90</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>275</v>
+        <v>188</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>80</v>
@@ -4704,13 +4683,13 @@
         <v>80</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>80</v>
+        <v>286</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>80</v>
+        <v>287</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>80</v>
+        <v>288</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>80</v>
@@ -4728,7 +4707,7 @@
         <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4737,7 +4716,7 @@
         <v>90</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>102</v>
@@ -4746,35 +4725,35 @@
         <v>80</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>283</v>
+        <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>284</v>
+        <v>133</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>286</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>80</v>
+        <v>292</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>80</v>
@@ -4786,19 +4765,19 @@
         <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>80</v>
@@ -4823,13 +4802,13 @@
         <v>80</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>80</v>
@@ -4847,16 +4826,16 @@
         <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>296</v>
+        <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>102</v>
@@ -4865,28 +4844,28 @@
         <v>80</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>80</v>
+        <v>299</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>133</v>
+        <v>300</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>80</v>
+        <v>302</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>299</v>
+        <v>80</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4896,7 +4875,7 @@
         <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>80</v>
@@ -4905,19 +4884,19 @@
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>195</v>
+        <v>304</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>80</v>
@@ -4942,13 +4921,13 @@
         <v>80</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>293</v>
+        <v>80</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>304</v>
+        <v>80</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>305</v>
+        <v>80</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>80</v>
@@ -4966,7 +4945,7 @@
         <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -4984,24 +4963,24 @@
         <v>80</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>306</v>
+        <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>309</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5012,10 +4991,10 @@
         <v>78</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>80</v>
@@ -5024,7 +5003,7 @@
         <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>311</v>
+        <v>188</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>312</v>
@@ -5035,9 +5014,7 @@
       <c r="M28" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="N28" t="s" s="2">
-        <v>315</v>
-      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>80</v>
       </c>
@@ -5061,13 +5038,13 @@
         <v>80</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>80</v>
+        <v>203</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>80</v>
+        <v>315</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>80</v>
+        <v>316</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>80</v>
@@ -5085,13 +5062,13 @@
         <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>80</v>
@@ -5103,24 +5080,24 @@
         <v>80</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>80</v>
+        <v>317</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>80</v>
+        <v>320</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5143,18 +5120,20 @@
         <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>80</v>
       </c>
@@ -5178,13 +5157,13 @@
         <v>80</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>80</v>
@@ -5202,7 +5181,7 @@
         <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5220,24 +5199,24 @@
         <v>80</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>324</v>
+        <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>327</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5260,20 +5239,18 @@
         <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>195</v>
+        <v>331</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>80</v>
       </c>
@@ -5297,13 +5274,13 @@
         <v>80</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>333</v>
+        <v>80</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>334</v>
+        <v>80</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>80</v>
@@ -5321,7 +5298,7 @@
         <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5339,24 +5316,24 @@
         <v>80</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>80</v>
+        <v>335</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>80</v>
+        <v>338</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5379,16 +5356,16 @@
         <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5438,7 +5415,7 @@
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5456,24 +5433,24 @@
         <v>80</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5484,7 +5461,7 @@
         <v>78</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>80</v>
@@ -5496,18 +5473,20 @@
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>80</v>
       </c>
@@ -5555,42 +5534,42 @@
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>102</v>
+        <v>354</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>351</v>
+        <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>354</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5601,7 +5580,7 @@
         <v>78</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>80</v>
@@ -5613,20 +5592,16 @@
         <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>356</v>
+        <v>92</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="M33" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="N33" t="s" s="2">
-        <v>360</v>
-      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>80</v>
       </c>
@@ -5674,31 +5649,31 @@
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -5709,18 +5684,18 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>80</v>
@@ -5732,15 +5707,17 @@
         <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>365</v>
+        <v>137</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>80</v>
@@ -5789,19 +5766,19 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>80</v>
@@ -5813,7 +5790,7 @@
         <v>80</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
@@ -5824,11 +5801,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>148</v>
+        <v>366</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5841,24 +5818,26 @@
         <v>80</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>80</v>
       </c>
@@ -5906,7 +5885,7 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -5930,7 +5909,7 @@
         <v>80</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>368</v>
+        <v>133</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -5941,43 +5920,39 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>374</v>
+        <v>80</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>135</v>
+        <v>371</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>80</v>
       </c>
@@ -6025,19 +6000,19 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>80</v>
+        <v>374</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>80</v>
@@ -6046,10 +6021,10 @@
         <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>80</v>
+        <v>375</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>133</v>
+        <v>376</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>80</v>
@@ -6060,7 +6035,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6083,13 +6058,13 @@
         <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6140,7 +6115,7 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6149,7 +6124,7 @@
         <v>90</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>102</v>
@@ -6161,10 +6136,10 @@
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>80</v>
@@ -6175,7 +6150,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6198,16 +6173,20 @@
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>379</v>
+        <v>188</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+        <v>383</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>80</v>
       </c>
@@ -6231,13 +6210,13 @@
         <v>80</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>80</v>
+        <v>386</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>80</v>
+        <v>387</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>80</v>
@@ -6255,7 +6234,7 @@
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6264,7 +6243,7 @@
         <v>90</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>382</v>
+        <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>102</v>
@@ -6273,13 +6252,13 @@
         <v>80</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>388</v>
+        <v>301</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>80</v>
@@ -6290,7 +6269,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6301,7 +6280,7 @@
         <v>78</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>80</v>
@@ -6313,19 +6292,19 @@
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>80</v>
@@ -6350,13 +6329,13 @@
         <v>80</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>114</v>
+        <v>203</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>80</v>
@@ -6374,13 +6353,13 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>80</v>
@@ -6392,13 +6371,13 @@
         <v>80</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>80</v>
@@ -6409,7 +6388,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6420,7 +6399,7 @@
         <v>78</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>80</v>
@@ -6432,7 +6411,7 @@
         <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>195</v>
+        <v>398</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>399</v>
@@ -6440,11 +6419,9 @@
       <c r="L40" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="M40" s="2"/>
+      <c r="N40" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>80</v>
@@ -6469,13 +6446,13 @@
         <v>80</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>403</v>
+        <v>80</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>404</v>
+        <v>80</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>80</v>
@@ -6493,13 +6470,13 @@
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>80</v>
@@ -6511,13 +6488,13 @@
         <v>80</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>396</v>
+        <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>397</v>
+        <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>308</v>
+        <v>402</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>80</v>
@@ -6528,7 +6505,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6551,18 +6528,16 @@
         <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>406</v>
+        <v>92</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="M41" s="2"/>
-      <c r="N41" t="s" s="2">
-        <v>409</v>
-      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>80</v>
       </c>
@@ -6610,7 +6585,7 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6631,10 +6606,10 @@
         <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>80</v>
+        <v>375</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>80</v>
@@ -6645,7 +6620,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6656,7 +6631,7 @@
         <v>78</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>80</v>
@@ -6665,18 +6640,20 @@
         <v>80</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>92</v>
+        <v>408</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>80</v>
@@ -6725,13 +6702,13 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>80</v>
@@ -6746,10 +6723,10 @@
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>383</v>
+        <v>412</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>80</v>
@@ -6760,7 +6737,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6783,16 +6760,16 @@
         <v>91</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6842,7 +6819,7 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6863,10 +6840,10 @@
         <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
@@ -6877,7 +6854,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6900,18 +6877,20 @@
         <v>91</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="L44" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>80</v>
       </c>
@@ -6959,7 +6938,7 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -6980,10 +6959,10 @@
         <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
@@ -6994,7 +6973,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7005,7 +6984,7 @@
         <v>78</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>80</v>
@@ -7014,23 +6993,19 @@
         <v>80</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>356</v>
+        <v>92</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>429</v>
+        <v>358</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>432</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7078,19 +7053,19 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>428</v>
+        <v>360</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>80</v>
@@ -7099,10 +7074,10 @@
         <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>433</v>
+        <v>80</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>434</v>
+        <v>361</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>80</v>
@@ -7113,18 +7088,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>80</v>
@@ -7136,15 +7111,17 @@
         <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>365</v>
+        <v>137</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>80</v>
@@ -7193,19 +7170,19 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>80</v>
@@ -7217,7 +7194,7 @@
         <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>80</v>
@@ -7228,11 +7205,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>148</v>
+        <v>366</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7245,24 +7222,26 @@
         <v>80</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7310,7 +7289,7 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7334,7 +7313,7 @@
         <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>368</v>
+        <v>133</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>80</v>
@@ -7345,42 +7324,42 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>374</v>
+        <v>80</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>91</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>135</v>
+        <v>188</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>375</v>
+        <v>431</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>376</v>
+        <v>432</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>151</v>
+        <v>433</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>152</v>
+        <v>202</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>80</v>
@@ -7405,13 +7384,13 @@
         <v>80</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>80</v>
+        <v>203</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>80</v>
+        <v>204</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>80</v>
@@ -7429,34 +7408,34 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>377</v>
+        <v>430</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>80</v>
+        <v>434</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>80</v>
+        <v>208</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>133</v>
+        <v>209</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>80</v>
@@ -7464,7 +7443,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7472,7 +7451,7 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>90</v>
@@ -7487,19 +7466,19 @@
         <v>91</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>195</v>
+        <v>436</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>440</v>
+        <v>270</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>209</v>
+        <v>272</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>80</v>
@@ -7524,13 +7503,13 @@
         <v>80</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>211</v>
+        <v>80</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>212</v>
+        <v>80</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>80</v>
@@ -7548,10 +7527,10 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>90</v>
@@ -7566,24 +7545,24 @@
         <v>80</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>215</v>
+        <v>277</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>216</v>
+        <v>278</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>217</v>
+        <v>80</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>80</v>
+        <v>279</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7603,22 +7582,22 @@
         <v>80</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>444</v>
+        <v>188</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>277</v>
+        <v>442</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>80</v>
@@ -7643,13 +7622,13 @@
         <v>80</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>80</v>
+        <v>286</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>80</v>
+        <v>287</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>80</v>
+        <v>288</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>80</v>
@@ -7667,7 +7646,7 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7676,7 +7655,7 @@
         <v>90</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>80</v>
+        <v>289</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>102</v>
@@ -7685,35 +7664,35 @@
         <v>80</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>447</v>
+        <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>284</v>
+        <v>133</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>286</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>80</v>
+        <v>292</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>80</v>
@@ -7725,19 +7704,19 @@
         <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>449</v>
+        <v>293</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>450</v>
+        <v>294</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>451</v>
+        <v>295</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>80</v>
@@ -7762,13 +7741,13 @@
         <v>80</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>80</v>
@@ -7786,16 +7765,16 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>296</v>
+        <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>102</v>
@@ -7804,28 +7783,28 @@
         <v>80</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>80</v>
+        <v>299</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>133</v>
+        <v>300</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>80</v>
+        <v>302</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>299</v>
+        <v>80</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7844,19 +7823,19 @@
         <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>195</v>
+        <v>80</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>300</v>
+        <v>446</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>301</v>
+        <v>447</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>302</v>
+        <v>352</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>303</v>
+        <v>353</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>80</v>
@@ -7881,13 +7860,13 @@
         <v>80</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>293</v>
+        <v>80</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>304</v>
+        <v>80</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>305</v>
+        <v>80</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>80</v>
@@ -7905,7 +7884,7 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7923,142 +7902,23 @@
         <v>80</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>306</v>
+        <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="53" hidden="true">
-      <c r="A53" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P53" s="2"/>
-      <c r="Q53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO53" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO53">
+  <autoFilter ref="A1:AO52">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8068,7 +7928,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI52">
+  <conditionalFormatting sqref="A2:AI51">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
